--- a/data/WOP_2026_planning.xlsx
+++ b/data/WOP_2026_planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2026_winter\2026_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE536A4D-393B-4401-B89F-6E256B990F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06121EA-1A51-40FA-BEBC-4E7695A1EBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2772" yWindow="17172" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{D40C415E-5EC6-489A-8663-B1D283C6BF70}"/>
+    <workbookView xWindow="1155" yWindow="585" windowWidth="29805" windowHeight="18810" activeTab="5" xr2:uid="{D40C415E-5EC6-489A-8663-B1D283C6BF70}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,17 @@
     <sheet name="accession upload" sheetId="6" r:id="rId4"/>
     <sheet name="pea" sheetId="5" r:id="rId5"/>
     <sheet name="map" sheetId="13" r:id="rId6"/>
-    <sheet name="Guard " sheetId="14" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId10"/>
+    <sheet name="plot_layout" sheetId="15" r:id="rId7"/>
+    <sheet name="Guard " sheetId="14" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Guard '!$A$1:$D$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Guard '!$A$1:$D$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">map!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="444">
   <si>
     <t>OZARK|POGI</t>
   </si>
@@ -2134,14 +2134,14 @@
       <selection activeCell="A52" sqref="A52:A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2383,7 +2383,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>46</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1">
       <c r="A20" s="10" t="s">
         <v>48</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1">
       <c r="A48" s="8" t="s">
         <v>38</v>
       </c>
@@ -3412,6 +3412,421 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BAD89F-899C-470A-8DF1-81D2F8FA5FBB}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2">
+        <v>177.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H4">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H5">
+        <v>189.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6">
+        <v>103.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H7">
+        <v>147.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" t="s">
+        <v>379</v>
+      </c>
+      <c r="H8">
+        <v>182.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9">
+        <v>147.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H10">
+        <v>255.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H11">
+        <v>178.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12">
+        <v>124.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" t="s">
+        <v>379</v>
+      </c>
+      <c r="H13">
+        <v>232.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" t="s">
+        <v>382</v>
+      </c>
+      <c r="G14" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14">
+        <v>109.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" t="s">
+        <v>379</v>
+      </c>
+      <c r="H15">
+        <v>94.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD802DF-D8F2-4F26-9838-2BDF89A97E03}">
   <dimension ref="A1:H95"/>
   <sheetViews>
@@ -3419,13 +3834,13 @@
       <selection activeCell="A13" sqref="A13:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5005,19 +5420,19 @@
       <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="65.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>125</v>
       </c>
@@ -8521,20 +8936,20 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
@@ -9217,14 +9632,14 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9485,7 +9900,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -9507,28 +9922,28 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -10373,18 +10788,18 @@
   </sheetPr>
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24.6">
+    <row r="1" spans="1:22" ht="25.5">
       <c r="A1" s="29" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="25.8">
+    <row r="3" spans="1:22" ht="26.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31">
         <v>2</v>
@@ -10430,7 +10845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="25.8">
+    <row r="4" spans="1:22" ht="26.25">
       <c r="A4" s="30"/>
       <c r="B4" s="33" t="s">
         <v>393</v>
@@ -10476,7 +10891,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="25.8">
+    <row r="5" spans="1:22" ht="26.25">
       <c r="A5" s="30"/>
       <c r="B5" s="33"/>
       <c r="C5" s="31"/>
@@ -12219,7 +12634,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="25.8">
+    <row r="28" spans="1:22" ht="26.25">
       <c r="A28" s="33" t="s">
         <v>422</v>
       </c>
@@ -12264,7 +12679,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="25.8">
+    <row r="29" spans="1:22" ht="26.25">
       <c r="A29" s="31">
         <v>1</v>
       </c>
@@ -12312,27 +12727,1767 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="58" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D9A21-1C5C-415A-83A3-22029583C032}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="21">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="36">
+        <f t="shared" ref="B2:T3" si="0">B4+40</f>
+        <v>400</v>
+      </c>
+      <c r="C2" s="36">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="D2" s="36">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="E2" s="36">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="F2" s="36">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="G2" s="36">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="H2" s="36">
+        <f t="shared" si="0"/>
+        <v>394</v>
+      </c>
+      <c r="I2" s="36">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="J2" s="36">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+      <c r="K2" s="36">
+        <f t="shared" si="0"/>
+        <v>391</v>
+      </c>
+      <c r="L2" s="36">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="M2" s="36">
+        <f t="shared" si="0"/>
+        <v>389</v>
+      </c>
+      <c r="N2" s="36">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="O2" s="36">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="P2" s="36">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="Q2" s="36">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="R2" s="36">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="S2" s="36">
+        <f t="shared" si="0"/>
+        <v>383</v>
+      </c>
+      <c r="T2" s="36">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="U2" s="36">
+        <f>U4+40</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="21">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" s="36">
+        <f>B5+40</f>
+        <v>361</v>
+      </c>
+      <c r="C3" s="36">
+        <f t="shared" si="0"/>
+        <v>362</v>
+      </c>
+      <c r="D3" s="36">
+        <f t="shared" si="0"/>
+        <v>363</v>
+      </c>
+      <c r="E3" s="36">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="F3" s="36">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="G3" s="36">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="H3" s="36">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="I3" s="36">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="J3" s="36">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="K3" s="36">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="L3" s="36">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="M3" s="36">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="N3" s="36">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+      <c r="O3" s="36">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="P3" s="36">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="Q3" s="36">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="R3" s="36">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="S3" s="36">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="T3" s="36">
+        <f t="shared" si="0"/>
+        <v>379</v>
+      </c>
+      <c r="U3" s="36">
+        <f t="shared" ref="U3" si="1">U5+40</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="21">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" s="36">
+        <f t="shared" ref="B4:T5" si="2">B6+40</f>
+        <v>360</v>
+      </c>
+      <c r="C4" s="36">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+      <c r="D4" s="36">
+        <f t="shared" si="2"/>
+        <v>358</v>
+      </c>
+      <c r="E4" s="36">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="F4" s="36">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+      <c r="G4" s="36">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="H4" s="36">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+      <c r="I4" s="36">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+      <c r="J4" s="36">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="K4" s="36">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+      <c r="L4" s="36">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="M4" s="36">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+      <c r="N4" s="36">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="O4" s="36">
+        <f t="shared" si="2"/>
+        <v>347</v>
+      </c>
+      <c r="P4" s="36">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="Q4" s="36">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="R4" s="36">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="S4" s="36">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="T4" s="36">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="U4" s="36">
+        <f>U6+40</f>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="21">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" s="36">
+        <f>B7+40</f>
+        <v>321</v>
+      </c>
+      <c r="C5" s="36">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="D5" s="36">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="E5" s="36">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="F5" s="36">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="G5" s="36">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="H5" s="36">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="I5" s="36">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="J5" s="36">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="K5" s="36">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="L5" s="36">
+        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+      <c r="M5" s="36">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="N5" s="36">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="O5" s="36">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="P5" s="36">
+        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="Q5" s="36">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="R5" s="36">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="S5" s="36">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="T5" s="36">
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+      <c r="U5" s="36">
+        <f t="shared" ref="U5" si="3">U7+40</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="21">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="36">
+        <f t="shared" ref="B6:T7" si="4">B8+40</f>
+        <v>320</v>
+      </c>
+      <c r="C6" s="36">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+      <c r="D6" s="36">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" si="4"/>
+        <v>317</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="G6" s="36">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="H6" s="36">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="I6" s="36">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="J6" s="36">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="K6" s="36">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="L6" s="36">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="M6" s="36">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="N6" s="36">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="O6" s="36">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="P6" s="36">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="Q6" s="36">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="R6" s="36">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="S6" s="36">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="T6" s="36">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="U6" s="36">
+        <f>U8+40</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="21">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B9+40</f>
+        <v>281</v>
+      </c>
+      <c r="C7" s="36">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="36">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="E7" s="36">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="F7" s="36">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="G7" s="36">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="H7" s="36">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="I7" s="36">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="J7" s="36">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="L7" s="36">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="M7" s="36">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="N7" s="36">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="O7" s="36">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="P7" s="36">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="Q7" s="36">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="R7" s="36">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="S7" s="36">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="T7" s="36">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="U7" s="36">
+        <f t="shared" ref="U7" si="5">U9+40</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="21">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" s="36">
+        <f t="shared" ref="B8:T9" si="6">B10+40</f>
+        <v>280</v>
+      </c>
+      <c r="C8" s="36">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="D8" s="36">
+        <f t="shared" si="6"/>
+        <v>278</v>
+      </c>
+      <c r="E8" s="36">
+        <f t="shared" si="6"/>
+        <v>277</v>
+      </c>
+      <c r="F8" s="36">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+      <c r="G8" s="36">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="H8" s="36">
+        <f t="shared" si="6"/>
+        <v>274</v>
+      </c>
+      <c r="I8" s="36">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="J8" s="36">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="K8" s="36">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="L8" s="36">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="M8" s="36">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="N8" s="36">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="O8" s="36">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="P8" s="36">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="Q8" s="36">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="R8" s="36">
+        <f t="shared" si="6"/>
+        <v>264</v>
+      </c>
+      <c r="S8" s="36">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="T8" s="36">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="U8" s="36">
+        <f>U10+40</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="21">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="36">
+        <f>B11+40</f>
+        <v>241</v>
+      </c>
+      <c r="C9" s="36">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="D9" s="36">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="E9" s="36">
+        <f t="shared" si="6"/>
+        <v>244</v>
+      </c>
+      <c r="F9" s="36">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="G9" s="36">
+        <f t="shared" si="6"/>
+        <v>246</v>
+      </c>
+      <c r="H9" s="36">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="I9" s="36">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="J9" s="36">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="K9" s="36">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="L9" s="36">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="M9" s="36">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="N9" s="36">
+        <f t="shared" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="O9" s="36">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="P9" s="36">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="Q9" s="36">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="R9" s="36">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="S9" s="36">
+        <f t="shared" si="6"/>
+        <v>258</v>
+      </c>
+      <c r="T9" s="36">
+        <f t="shared" si="6"/>
+        <v>259</v>
+      </c>
+      <c r="U9" s="36">
+        <f t="shared" ref="U9" si="7">U11+40</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="21">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="36">
+        <f t="shared" ref="B10:T11" si="8">B12+40</f>
+        <v>240</v>
+      </c>
+      <c r="C10" s="36">
+        <f t="shared" si="8"/>
+        <v>239</v>
+      </c>
+      <c r="D10" s="36">
+        <f t="shared" si="8"/>
+        <v>238</v>
+      </c>
+      <c r="E10" s="36">
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="F10" s="36">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+      <c r="G10" s="36">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="H10" s="36">
+        <f t="shared" si="8"/>
+        <v>234</v>
+      </c>
+      <c r="I10" s="36">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+      <c r="J10" s="36">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+      <c r="K10" s="36">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="L10" s="36">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="M10" s="36">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="N10" s="36">
+        <f t="shared" si="8"/>
+        <v>228</v>
+      </c>
+      <c r="O10" s="36">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="P10" s="36">
+        <f t="shared" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="Q10" s="36">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="R10" s="36">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="S10" s="36">
+        <f t="shared" si="8"/>
+        <v>223</v>
+      </c>
+      <c r="T10" s="36">
+        <f t="shared" si="8"/>
+        <v>222</v>
+      </c>
+      <c r="U10" s="36">
+        <f>U12+40</f>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="21">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="36">
+        <f>B13+40</f>
+        <v>201</v>
+      </c>
+      <c r="C11" s="36">
+        <f t="shared" si="8"/>
+        <v>202</v>
+      </c>
+      <c r="D11" s="36">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="E11" s="36">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="F11" s="36">
+        <f t="shared" si="8"/>
+        <v>205</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="H11" s="36">
+        <f t="shared" si="8"/>
+        <v>207</v>
+      </c>
+      <c r="I11" s="36">
+        <f t="shared" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="J11" s="36">
+        <f t="shared" si="8"/>
+        <v>209</v>
+      </c>
+      <c r="K11" s="36">
+        <f t="shared" si="8"/>
+        <v>210</v>
+      </c>
+      <c r="L11" s="36">
+        <f t="shared" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="M11" s="36">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="N11" s="36">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="O11" s="36">
+        <f t="shared" si="8"/>
+        <v>214</v>
+      </c>
+      <c r="P11" s="36">
+        <f t="shared" si="8"/>
+        <v>215</v>
+      </c>
+      <c r="Q11" s="36">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="R11" s="36">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="S11" s="36">
+        <f t="shared" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="T11" s="36">
+        <f t="shared" si="8"/>
+        <v>219</v>
+      </c>
+      <c r="U11" s="36">
+        <f t="shared" ref="U11" si="9">U13+40</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="21">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36">
+        <f t="shared" ref="B12:T13" si="10">B14+40</f>
+        <v>200</v>
+      </c>
+      <c r="C12" s="36">
+        <f t="shared" si="10"/>
+        <v>199</v>
+      </c>
+      <c r="D12" s="36">
+        <f t="shared" si="10"/>
+        <v>198</v>
+      </c>
+      <c r="E12" s="36">
+        <f t="shared" si="10"/>
+        <v>197</v>
+      </c>
+      <c r="F12" s="36">
+        <f t="shared" si="10"/>
+        <v>196</v>
+      </c>
+      <c r="G12" s="36">
+        <f t="shared" si="10"/>
+        <v>195</v>
+      </c>
+      <c r="H12" s="36">
+        <f t="shared" si="10"/>
+        <v>194</v>
+      </c>
+      <c r="I12" s="36">
+        <f t="shared" si="10"/>
+        <v>193</v>
+      </c>
+      <c r="J12" s="36">
+        <f t="shared" si="10"/>
+        <v>192</v>
+      </c>
+      <c r="K12" s="36">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="L12" s="36">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="M12" s="36">
+        <f t="shared" si="10"/>
+        <v>189</v>
+      </c>
+      <c r="N12" s="36">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
+      <c r="O12" s="36">
+        <f t="shared" si="10"/>
+        <v>187</v>
+      </c>
+      <c r="P12" s="36">
+        <f t="shared" si="10"/>
+        <v>186</v>
+      </c>
+      <c r="Q12" s="36">
+        <f t="shared" si="10"/>
+        <v>185</v>
+      </c>
+      <c r="R12" s="36">
+        <f t="shared" si="10"/>
+        <v>184</v>
+      </c>
+      <c r="S12" s="36">
+        <f t="shared" si="10"/>
+        <v>183</v>
+      </c>
+      <c r="T12" s="36">
+        <f t="shared" si="10"/>
+        <v>182</v>
+      </c>
+      <c r="U12" s="36">
+        <f>U14+40</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="21">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="36">
+        <f>B15+40</f>
+        <v>161</v>
+      </c>
+      <c r="C13" s="36">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="D13" s="36">
+        <f t="shared" si="10"/>
+        <v>163</v>
+      </c>
+      <c r="E13" s="36">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="10"/>
+        <v>165</v>
+      </c>
+      <c r="G13" s="36">
+        <f t="shared" si="10"/>
+        <v>166</v>
+      </c>
+      <c r="H13" s="36">
+        <f t="shared" si="10"/>
+        <v>167</v>
+      </c>
+      <c r="I13" s="36">
+        <f t="shared" si="10"/>
+        <v>168</v>
+      </c>
+      <c r="J13" s="36">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="K13" s="36">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="L13" s="36">
+        <f t="shared" si="10"/>
+        <v>171</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" si="10"/>
+        <v>172</v>
+      </c>
+      <c r="N13" s="36">
+        <f t="shared" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="O13" s="36">
+        <f t="shared" si="10"/>
+        <v>174</v>
+      </c>
+      <c r="P13" s="36">
+        <f t="shared" si="10"/>
+        <v>175</v>
+      </c>
+      <c r="Q13" s="36">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="R13" s="36">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="S13" s="36">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+      <c r="T13" s="36">
+        <f t="shared" si="10"/>
+        <v>179</v>
+      </c>
+      <c r="U13" s="36">
+        <f t="shared" ref="U13" si="11">U15+40</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="21">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="36">
+        <f t="shared" ref="B14:T15" si="12">B16+40</f>
+        <v>160</v>
+      </c>
+      <c r="C14" s="36">
+        <f t="shared" si="12"/>
+        <v>159</v>
+      </c>
+      <c r="D14" s="36">
+        <f t="shared" si="12"/>
+        <v>158</v>
+      </c>
+      <c r="E14" s="36">
+        <f t="shared" si="12"/>
+        <v>157</v>
+      </c>
+      <c r="F14" s="36">
+        <f t="shared" si="12"/>
+        <v>156</v>
+      </c>
+      <c r="G14" s="36">
+        <f t="shared" si="12"/>
+        <v>155</v>
+      </c>
+      <c r="H14" s="36">
+        <f t="shared" si="12"/>
+        <v>154</v>
+      </c>
+      <c r="I14" s="36">
+        <f t="shared" si="12"/>
+        <v>153</v>
+      </c>
+      <c r="J14" s="36">
+        <f t="shared" si="12"/>
+        <v>152</v>
+      </c>
+      <c r="K14" s="36">
+        <f t="shared" si="12"/>
+        <v>151</v>
+      </c>
+      <c r="L14" s="36">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="M14" s="36">
+        <f t="shared" si="12"/>
+        <v>149</v>
+      </c>
+      <c r="N14" s="36">
+        <f t="shared" si="12"/>
+        <v>148</v>
+      </c>
+      <c r="O14" s="36">
+        <f t="shared" si="12"/>
+        <v>147</v>
+      </c>
+      <c r="P14" s="36">
+        <f t="shared" si="12"/>
+        <v>146</v>
+      </c>
+      <c r="Q14" s="36">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="R14" s="36">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="S14" s="36">
+        <f t="shared" si="12"/>
+        <v>143</v>
+      </c>
+      <c r="T14" s="36">
+        <f t="shared" si="12"/>
+        <v>142</v>
+      </c>
+      <c r="U14" s="36">
+        <f>U16+40</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="21">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="36">
+        <f>B17+40</f>
+        <v>121</v>
+      </c>
+      <c r="C15" s="36">
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="D15" s="36">
+        <f t="shared" si="12"/>
+        <v>123</v>
+      </c>
+      <c r="E15" s="36">
+        <f t="shared" si="12"/>
+        <v>124</v>
+      </c>
+      <c r="F15" s="36">
+        <f t="shared" si="12"/>
+        <v>125</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="12"/>
+        <v>126</v>
+      </c>
+      <c r="H15" s="36">
+        <f t="shared" si="12"/>
+        <v>127</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="J15" s="36">
+        <f t="shared" si="12"/>
+        <v>129</v>
+      </c>
+      <c r="K15" s="36">
+        <f t="shared" si="12"/>
+        <v>130</v>
+      </c>
+      <c r="L15" s="36">
+        <f t="shared" si="12"/>
+        <v>131</v>
+      </c>
+      <c r="M15" s="36">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+      <c r="N15" s="36">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="O15" s="36">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="P15" s="36">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="Q15" s="36">
+        <f t="shared" si="12"/>
+        <v>136</v>
+      </c>
+      <c r="R15" s="36">
+        <f t="shared" si="12"/>
+        <v>137</v>
+      </c>
+      <c r="S15" s="36">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="T15" s="36">
+        <f t="shared" si="12"/>
+        <v>139</v>
+      </c>
+      <c r="U15" s="36">
+        <f t="shared" ref="U15" si="13">U17+40</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="21">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="36">
+        <f t="shared" ref="B16:T17" si="14">B18+40</f>
+        <v>120</v>
+      </c>
+      <c r="C16" s="36">
+        <f t="shared" si="14"/>
+        <v>119</v>
+      </c>
+      <c r="D16" s="36">
+        <f t="shared" si="14"/>
+        <v>118</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="14"/>
+        <v>117</v>
+      </c>
+      <c r="F16" s="36">
+        <f t="shared" si="14"/>
+        <v>116</v>
+      </c>
+      <c r="G16" s="36">
+        <f t="shared" si="14"/>
+        <v>115</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="14"/>
+        <v>114</v>
+      </c>
+      <c r="I16" s="36">
+        <f t="shared" si="14"/>
+        <v>113</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
+      <c r="K16" s="36">
+        <f t="shared" si="14"/>
+        <v>111</v>
+      </c>
+      <c r="L16" s="36">
+        <f t="shared" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="M16" s="36">
+        <f t="shared" si="14"/>
+        <v>109</v>
+      </c>
+      <c r="N16" s="36">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="O16" s="36">
+        <f t="shared" si="14"/>
+        <v>107</v>
+      </c>
+      <c r="P16" s="36">
+        <f t="shared" si="14"/>
+        <v>106</v>
+      </c>
+      <c r="Q16" s="36">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="R16" s="36">
+        <f t="shared" si="14"/>
+        <v>104</v>
+      </c>
+      <c r="S16" s="36">
+        <f t="shared" si="14"/>
+        <v>103</v>
+      </c>
+      <c r="T16" s="36">
+        <f t="shared" si="14"/>
+        <v>102</v>
+      </c>
+      <c r="U16" s="36">
+        <f>U18+40</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="21">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="36">
+        <f>B19+40</f>
+        <v>81</v>
+      </c>
+      <c r="C17" s="36">
+        <f t="shared" si="14"/>
+        <v>82</v>
+      </c>
+      <c r="D17" s="36">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="E17" s="36">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+      <c r="F17" s="36">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+      <c r="G17" s="36">
+        <f t="shared" si="14"/>
+        <v>86</v>
+      </c>
+      <c r="H17" s="36">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
+      <c r="I17" s="36">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="J17" s="36">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="K17" s="36">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="L17" s="36">
+        <f t="shared" si="14"/>
+        <v>91</v>
+      </c>
+      <c r="M17" s="36">
+        <f t="shared" si="14"/>
+        <v>92</v>
+      </c>
+      <c r="N17" s="36">
+        <f t="shared" si="14"/>
+        <v>93</v>
+      </c>
+      <c r="O17" s="36">
+        <f t="shared" si="14"/>
+        <v>94</v>
+      </c>
+      <c r="P17" s="36">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
+      <c r="Q17" s="36">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="R17" s="36">
+        <f t="shared" si="14"/>
+        <v>97</v>
+      </c>
+      <c r="S17" s="36">
+        <f t="shared" si="14"/>
+        <v>98</v>
+      </c>
+      <c r="T17" s="36">
+        <f t="shared" si="14"/>
+        <v>99</v>
+      </c>
+      <c r="U17" s="36">
+        <f t="shared" ref="U17" si="15">U19+40</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="21">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="36">
+        <f t="shared" ref="B18:T19" si="16">B20+40</f>
+        <v>80</v>
+      </c>
+      <c r="C18" s="36">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="D18" s="36">
+        <f t="shared" si="16"/>
+        <v>78</v>
+      </c>
+      <c r="E18" s="36">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="F18" s="36">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="G18" s="36">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="H18" s="36">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="I18" s="36">
+        <f t="shared" si="16"/>
+        <v>73</v>
+      </c>
+      <c r="J18" s="36">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="K18" s="36">
+        <f t="shared" si="16"/>
+        <v>71</v>
+      </c>
+      <c r="L18" s="36">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="M18" s="36">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="N18" s="36">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="O18" s="36">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="P18" s="36">
+        <f t="shared" si="16"/>
+        <v>66</v>
+      </c>
+      <c r="Q18" s="36">
+        <f t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="R18" s="36">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="S18" s="36">
+        <f t="shared" si="16"/>
+        <v>63</v>
+      </c>
+      <c r="T18" s="36">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="U18" s="36">
+        <f>U20+40</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="21">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="36">
+        <f>B21+40</f>
+        <v>41</v>
+      </c>
+      <c r="C19" s="36">
+        <f t="shared" si="16"/>
+        <v>42</v>
+      </c>
+      <c r="D19" s="36">
+        <f t="shared" si="16"/>
+        <v>43</v>
+      </c>
+      <c r="E19" s="36">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="F19" s="36">
+        <f t="shared" si="16"/>
+        <v>45</v>
+      </c>
+      <c r="G19" s="36">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="H19" s="36">
+        <f t="shared" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="I19" s="36">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="J19" s="36">
+        <f t="shared" si="16"/>
+        <v>49</v>
+      </c>
+      <c r="K19" s="36">
+        <f t="shared" si="16"/>
+        <v>50</v>
+      </c>
+      <c r="L19" s="36">
+        <f t="shared" si="16"/>
+        <v>51</v>
+      </c>
+      <c r="M19" s="36">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="N19" s="36">
+        <f t="shared" si="16"/>
+        <v>53</v>
+      </c>
+      <c r="O19" s="36">
+        <f t="shared" si="16"/>
+        <v>54</v>
+      </c>
+      <c r="P19" s="36">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="Q19" s="36">
+        <f t="shared" si="16"/>
+        <v>56</v>
+      </c>
+      <c r="R19" s="36">
+        <f t="shared" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="S19" s="36">
+        <f t="shared" si="16"/>
+        <v>58</v>
+      </c>
+      <c r="T19" s="36">
+        <f t="shared" si="16"/>
+        <v>59</v>
+      </c>
+      <c r="U19" s="36">
+        <f t="shared" ref="U19" si="17">U21+40</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="21">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="36">
+        <v>40</v>
+      </c>
+      <c r="C20" s="36">
+        <v>39</v>
+      </c>
+      <c r="D20" s="36">
+        <v>38</v>
+      </c>
+      <c r="E20" s="36">
+        <v>37</v>
+      </c>
+      <c r="F20" s="36">
+        <v>36</v>
+      </c>
+      <c r="G20" s="36">
+        <v>35</v>
+      </c>
+      <c r="H20" s="36">
+        <v>34</v>
+      </c>
+      <c r="I20" s="36">
+        <v>33</v>
+      </c>
+      <c r="J20" s="36">
+        <v>32</v>
+      </c>
+      <c r="K20" s="36">
+        <v>31</v>
+      </c>
+      <c r="L20" s="36">
+        <v>30</v>
+      </c>
+      <c r="M20" s="36">
+        <v>29</v>
+      </c>
+      <c r="N20" s="36">
+        <v>28</v>
+      </c>
+      <c r="O20" s="36">
+        <v>27</v>
+      </c>
+      <c r="P20" s="36">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="36">
+        <v>25</v>
+      </c>
+      <c r="R20" s="36">
+        <v>24</v>
+      </c>
+      <c r="S20" s="36">
+        <v>23</v>
+      </c>
+      <c r="T20" s="36">
+        <v>22</v>
+      </c>
+      <c r="U20" s="36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="21">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="36">
+        <v>1</v>
+      </c>
+      <c r="C21" s="36">
+        <v>2</v>
+      </c>
+      <c r="D21" s="36">
+        <v>3</v>
+      </c>
+      <c r="E21" s="36">
+        <v>4</v>
+      </c>
+      <c r="F21" s="36">
+        <v>5</v>
+      </c>
+      <c r="G21" s="36">
+        <v>6</v>
+      </c>
+      <c r="H21" s="36">
+        <v>7</v>
+      </c>
+      <c r="I21" s="36">
+        <v>8</v>
+      </c>
+      <c r="J21" s="36">
+        <v>9</v>
+      </c>
+      <c r="K21" s="36">
+        <v>10</v>
+      </c>
+      <c r="L21" s="36">
+        <v>11</v>
+      </c>
+      <c r="M21" s="36">
+        <v>12</v>
+      </c>
+      <c r="N21" s="36">
+        <v>13</v>
+      </c>
+      <c r="O21" s="36">
+        <v>14</v>
+      </c>
+      <c r="P21" s="36">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="36">
+        <v>16</v>
+      </c>
+      <c r="R21" s="36">
+        <v>17</v>
+      </c>
+      <c r="S21" s="36">
+        <v>18</v>
+      </c>
+      <c r="T21" s="36">
+        <v>19</v>
+      </c>
+      <c r="U21" s="36">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED20229-342C-49AB-9E62-1EAB17655EC9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12916,7 +15071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D6ACD0-0517-40C9-8E0F-60D71932C3C7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12927,12 +15082,12 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="65.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13600,419 +15755,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BAD89F-899C-470A-8DF1-81D2F8FA5FBB}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G1" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G2" t="s">
-        <v>379</v>
-      </c>
-      <c r="H2">
-        <v>177.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G3" t="s">
-        <v>379</v>
-      </c>
-      <c r="H3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G4" t="s">
-        <v>379</v>
-      </c>
-      <c r="H4">
-        <v>92.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F5" t="s">
-        <v>378</v>
-      </c>
-      <c r="G5" t="s">
-        <v>379</v>
-      </c>
-      <c r="H5">
-        <v>189.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" t="s">
-        <v>379</v>
-      </c>
-      <c r="H6">
-        <v>103.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" t="s">
-        <v>376</v>
-      </c>
-      <c r="E7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H7">
-        <v>147.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" t="s">
-        <v>377</v>
-      </c>
-      <c r="F8" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" t="s">
-        <v>379</v>
-      </c>
-      <c r="H8">
-        <v>182.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>387</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" t="s">
-        <v>376</v>
-      </c>
-      <c r="E9" t="s">
-        <v>377</v>
-      </c>
-      <c r="F9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G9" t="s">
-        <v>379</v>
-      </c>
-      <c r="H9">
-        <v>147.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" t="s">
-        <v>376</v>
-      </c>
-      <c r="E10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" t="s">
-        <v>378</v>
-      </c>
-      <c r="G10" t="s">
-        <v>379</v>
-      </c>
-      <c r="H10">
-        <v>255.69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>389</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F11" t="s">
-        <v>378</v>
-      </c>
-      <c r="G11" t="s">
-        <v>379</v>
-      </c>
-      <c r="H11">
-        <v>178.86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" t="s">
-        <v>377</v>
-      </c>
-      <c r="F12" t="s">
-        <v>378</v>
-      </c>
-      <c r="G12" t="s">
-        <v>379</v>
-      </c>
-      <c r="H12">
-        <v>124.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G13" t="s">
-        <v>379</v>
-      </c>
-      <c r="H13">
-        <v>232.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" t="s">
-        <v>376</v>
-      </c>
-      <c r="E14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" t="s">
-        <v>382</v>
-      </c>
-      <c r="G14" t="s">
-        <v>379</v>
-      </c>
-      <c r="H14">
-        <v>109.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" t="s">
-        <v>376</v>
-      </c>
-      <c r="E15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" t="s">
-        <v>382</v>
-      </c>
-      <c r="G15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H15">
-        <v>94.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/WOP_2026_planning.xlsx
+++ b/data/WOP_2026_planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2026_winter\2026_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06121EA-1A51-40FA-BEBC-4E7695A1EBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EAAC9-5ED8-4D12-BCA9-82F5529E08C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="585" windowWidth="29805" windowHeight="18810" activeTab="5" xr2:uid="{D40C415E-5EC6-489A-8663-B1D283C6BF70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D40C415E-5EC6-489A-8663-B1D283C6BF70}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">map!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/data/WOP_2026_planning.xlsx
+++ b/data/WOP_2026_planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2026_winter\2026_winter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EAAC9-5ED8-4D12-BCA9-82F5529E08C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58999C61-2167-47B2-88A8-C8077B337CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D40C415E-5EC6-489A-8663-B1D283C6BF70}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15285" activeTab="5" xr2:uid="{D40C415E-5EC6-489A-8663-B1D283C6BF70}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">map!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
